--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150745.6585864073</v>
+        <v>148858.0770700061</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>111.7734568742195</v>
+        <v>33.23657099140099</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>202.8597187512164</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>163.4399765605762</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>170.3298752413689</v>
+        <v>304.4053514208625</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.8524135464463</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>66.17512620685336</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>341.4151639943844</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0.5736554365944766</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>118.3167770327489</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>223.8243835520302</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>127.6176159584067</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>21.07561542818094</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>31.1365410701963</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>8.856576811533444</v>
       </c>
     </row>
     <row r="17">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>152.6054364760463</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>136.1615536360951</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>279.1120900633767</v>
       </c>
       <c r="V22" t="n">
-        <v>131.0780187496725</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9.258144655284703</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>220.5173663574478</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>21.12833712222987</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>42.66059551718175</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>93.59717489587953</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3235,7 +3235,7 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.039635429691</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C2" t="n">
-        <v>1245.039635429691</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D2" t="n">
-        <v>886.7739368229402</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="E2" t="n">
-        <v>500.9856842246959</v>
+        <v>498.5011805406801</v>
       </c>
       <c r="F2" t="n">
-        <v>494.0401834754925</v>
+        <v>87.51527575107252</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.039635429691</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1245.039635429691</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.535689181137</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>523.2201773870239</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>268.535689181137</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>268.535689181137</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>268.535689181137</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.535689181137</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1159.40775858698</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="C5" t="n">
-        <v>790.4452416465681</v>
+        <v>1997.12368673424</v>
       </c>
       <c r="D5" t="n">
-        <v>790.4452416465681</v>
+        <v>1638.85798812749</v>
       </c>
       <c r="E5" t="n">
-        <v>790.4452416465681</v>
+        <v>1253.069735529246</v>
       </c>
       <c r="F5" t="n">
-        <v>379.4593368569605</v>
+        <v>842.0838307396382</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1936.146930626913</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1546.007598651101</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.1154545468206</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C7" t="n">
-        <v>257.1154545468206</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>257.1154545468206</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>257.1154545468206</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468206</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>257.1154545468206</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>257.1154545468206</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>257.1154545468206</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.1154545468206</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1525.74665604171</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C8" t="n">
-        <v>1156.784139101298</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>798.5184404945476</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>412.7301878963033</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>331.20325038051</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5121,16 +5121,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>303.4575213834695</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899335</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698952</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.6944526764914</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>505.7582697485846</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1370.009587771633</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1370.009587771633</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.423997082767</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X13" t="n">
-        <v>1077.135496650261</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.3429175067312</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.6681430463427</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C16" t="n">
-        <v>128.6681430463427</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570733</v>
+        <v>844.0280401273992</v>
       </c>
       <c r="W16" t="n">
-        <v>531.1091870201126</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X16" t="n">
-        <v>531.1091870201126</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.3166078765825</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5610,7 +5610,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>840.6662285267282</v>
+        <v>696.5850465240059</v>
       </c>
       <c r="C19" t="n">
-        <v>671.7300455988213</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988213</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164282</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1250.304244254985</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1250.304244254985</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>1250.304244254985</v>
+        <v>696.5850465240059</v>
       </c>
       <c r="X19" t="n">
-        <v>1022.314693356968</v>
+        <v>696.5850465240059</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.314693356968</v>
+        <v>696.5850465240059</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609656</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V22" t="n">
-        <v>853.6001774198822</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>564.1830073829216</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>564.1830073829216</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.1830073829216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,22 +5978,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>732.358329063101</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C25" t="n">
-        <v>563.4221461351941</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688071</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1289.64459920549</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>1000.515960419048</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655735</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="W25" t="n">
-        <v>732.358329063101</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="X25" t="n">
-        <v>732.358329063101</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y25" t="n">
-        <v>732.358329063101</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075996</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W28" t="n">
-        <v>475.3232817706389</v>
+        <v>545.9992215018332</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542186</v>
+        <v>750.8748194215254</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542186</v>
+        <v>637.6995017749894</v>
       </c>
       <c r="D31" t="n">
-        <v>396.4409193308027</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="E31" t="n">
-        <v>304.2886910297804</v>
+        <v>451.191499343002</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
         <v>997.668872196205</v>
@@ -6643,10 +6643,10 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>1041.794132832554</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030874</v>
+        <v>876.7624189703944</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506725</v>
@@ -6856,16 +6856,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,49 +6920,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7579,10 +7579,10 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,49 +7631,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>15.83804904622849</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>93.92994509998258</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>204.6340399608562</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>117.4789319480161</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>209.7280765405613</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>14.64138462258158</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>150.0757987624822</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>7.125262335200603</v>
       </c>
       <c r="V22" t="n">
-        <v>121.0596245741555</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>212.2894164031045</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>66.0056319791432</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>231.0093062015981</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>50.75162087247352</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>76.90922386460059</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
         <v>293271.7948032815</v>
@@ -26329,31 +26329,31 @@
         <v>293271.7948032815</v>
       </c>
       <c r="H2" t="n">
-        <v>293271.7948032813</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="J2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032816</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089525</v>
+        <v>305116.6030089524</v>
       </c>
       <c r="L2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="M2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="N2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="N2" t="n">
-        <v>307890.6636991062</v>
-      </c>
       <c r="O2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.6053028456</v>
       </c>
     </row>
     <row r="4">
@@ -26433,31 +26433,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="I4" t="n">
-        <v>15045.66962143911</v>
-      </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563563</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275955</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.4568627596</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26488,10 +26488,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-521711.2518300703</v>
+        <v>-521711.2518300704</v>
       </c>
       <c r="C6" t="n">
-        <v>68256.62738447418</v>
+        <v>68256.62738447443</v>
       </c>
       <c r="D6" t="n">
-        <v>68256.62738447424</v>
+        <v>68256.62738447434</v>
       </c>
       <c r="E6" t="n">
-        <v>-338921.2372437704</v>
+        <v>-339018.6963697425</v>
       </c>
       <c r="F6" t="n">
-        <v>186238.7992331258</v>
+        <v>186141.3401071535</v>
       </c>
       <c r="G6" t="n">
-        <v>186238.7992331257</v>
+        <v>186141.3401071536</v>
       </c>
       <c r="H6" t="n">
-        <v>186238.7992331255</v>
+        <v>186141.3401071535</v>
       </c>
       <c r="I6" t="n">
-        <v>186238.7992331257</v>
+        <v>186141.3401071535</v>
       </c>
       <c r="J6" t="n">
-        <v>9815.580040532746</v>
+        <v>9718.120914560728</v>
       </c>
       <c r="K6" t="n">
-        <v>131115.4970402484</v>
+        <v>131097.003302314</v>
       </c>
       <c r="L6" t="n">
-        <v>162368.1942154544</v>
+        <v>162368.1942154545</v>
       </c>
       <c r="M6" t="n">
-        <v>37910.08578248412</v>
+        <v>37910.08578248431</v>
       </c>
       <c r="N6" t="n">
-        <v>172711.1010163212</v>
+        <v>172711.1010163213</v>
       </c>
       <c r="O6" t="n">
         <v>172711.1010163213</v>
       </c>
       <c r="P6" t="n">
-        <v>128548.4957134756</v>
+        <v>128548.4957134759</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>302.0107131465754</v>
+        <v>380.547599029394</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,10 +27427,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>83.42215549076133</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>55.14467679151863</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>243.4542947794261</v>
+        <v>109.3788185999325</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>71.97956663549104</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>79.24592181607788</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>65.46088174732699</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>385.6642832194591</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>30.29869598546344</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.88527183700694</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>166.4134876341677</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
